--- a/generadas/LEBAC 35 DIAS TNC PF-13.xlsx
+++ b/generadas/LEBAC 35 DIAS TNC PF-13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t xml:space="preserve">     Licitación Letras del Banco Central de la República Argentina (BCRA) en Pesos</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>26-Apr-2016</t>
+    <t>10-May-2016</t>
   </si>
   <si>
     <t>CÓDIGO AGENTE:</t>
@@ -70,31 +70,13 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>20-13071655-6</t>
-  </si>
-  <si>
-    <t>20-28034377-4</t>
-  </si>
-  <si>
-    <t>23-18378569-9</t>
-  </si>
-  <si>
-    <t>20-07605153-5</t>
-  </si>
-  <si>
-    <t>20-04045495-1</t>
-  </si>
-  <si>
-    <t>20-34585435-6</t>
-  </si>
-  <si>
-    <t>20-17361158-8</t>
-  </si>
-  <si>
-    <t>20-04174739-1</t>
-  </si>
-  <si>
-    <t>20-35805827-3</t>
+    <t>20-12894935-7</t>
+  </si>
+  <si>
+    <t>20-11877374-9</t>
+  </si>
+  <si>
+    <t>20-21094029-5</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -1211,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18">
-        <v>1300000</v>
+        <v>107000</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="37" t="s">
@@ -1225,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="22">
-        <v>722000</v>
+        <v>96000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="33" t="s">
@@ -1239,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="22">
-        <v>622000</v>
+        <v>120000</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="33" t="s">
@@ -1252,13 +1234,9 @@
       <c r="A17" s="21">
         <v>4</v>
       </c>
-      <c r="B17" s="22">
-        <v>576000</v>
-      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="24"/>
     </row>
@@ -1266,13 +1244,9 @@
       <c r="A18" s="21">
         <v>5</v>
       </c>
-      <c r="B18" s="22">
-        <v>398000</v>
-      </c>
+      <c r="B18" s="22"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="33"/>
       <c r="E18" s="34"/>
       <c r="F18" s="24"/>
     </row>
@@ -1280,13 +1254,9 @@
       <c r="A19" s="21">
         <v>6</v>
       </c>
-      <c r="B19" s="22">
-        <v>61000</v>
-      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="24"/>
     </row>
@@ -1294,13 +1264,9 @@
       <c r="A20" s="21">
         <v>7</v>
       </c>
-      <c r="B20" s="22">
-        <v>105000</v>
-      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24"/>
     </row>
@@ -1308,13 +1274,9 @@
       <c r="A21" s="21">
         <v>8</v>
       </c>
-      <c r="B21" s="22">
-        <v>900000</v>
-      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="D21" s="33"/>
       <c r="E21" s="34"/>
       <c r="F21" s="24"/>
     </row>
@@ -1322,13 +1284,9 @@
       <c r="A22" s="21">
         <v>9</v>
       </c>
-      <c r="B22" s="22">
-        <v>155000</v>
-      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="D22" s="33"/>
       <c r="E22" s="34"/>
       <c r="F22" s="24"/>
     </row>
@@ -1336,19 +1294,15 @@
       <c r="A23" s="25">
         <v>10</v>
       </c>
-      <c r="B23" s="26">
-        <v>201000</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="34"/>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:7" customHeight="1" ht="21">
       <c r="A24" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" s="28" t="str">
         <f>SUM($B$14:$B$23)</f>
@@ -1358,7 +1312,7 @@
     <row r="25" spans="1:7" customHeight="1" ht="12"/>
     <row r="27" spans="1:7" customHeight="1" ht="18">
       <c r="D27" s="35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -1366,12 +1320,12 @@
     <row r="28" spans="1:7" customHeight="1" ht="3.75"/>
     <row r="29" spans="1:7" customHeight="1" ht="15.75">
       <c r="A29" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" customHeight="1" ht="14.25">
       <c r="A30" s="36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -1381,7 +1335,7 @@
     </row>
     <row r="31" spans="1:7" customHeight="1" ht="27.75">
       <c r="A31" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -1391,7 +1345,7 @@
     </row>
     <row r="32" spans="1:7" customHeight="1" ht="42.75">
       <c r="A32" s="32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -1401,7 +1355,7 @@
     </row>
     <row r="33" spans="1:7" customHeight="1" ht="14.25">
       <c r="A33" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1575,7 +1529,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
